--- a/Cronograma .xlsx
+++ b/Cronograma .xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{0BADD997-DAB3-4047-8A68-44383F7DF526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11C0BF18-9D37-4244-92E9-9090B68C4E42}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="8_{0BADD997-DAB3-4047-8A68-44383F7DF526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9383EB1-44C4-4B0C-9BCF-E78FD42601AD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -321,7 +321,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m;@"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -438,6 +438,13 @@
       <b/>
       <sz val="13"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="7"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -661,7 +668,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -770,6 +777,15 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
       <alignment vertical="center"/>
     </xf>
@@ -781,12 +797,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -982,6 +992,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1217,8 +1231,8 @@
   </sheetPr>
   <dimension ref="B1:EC55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:AL1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1227,15 +1241,15 @@
     <col min="2" max="2" width="100.33203125" style="2" customWidth="1"/>
     <col min="3" max="6" width="14.33203125" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="15.58203125" style="3" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16" width="5.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="26" width="5.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.9140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="37" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="5.9140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="16" width="5.08203125" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="5.9140625" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="5.5" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="26" width="5.9140625" style="1" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="6.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="5.9140625" hidden="1" customWidth="1"/>
+    <col min="29" max="37" width="6.33203125" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="5.9140625" hidden="1" customWidth="1"/>
     <col min="39" max="39" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="40" max="47" width="5.08203125" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="5.9140625" bestFit="1" customWidth="1"/>
@@ -1290,93 +1304,93 @@
         <v>1</v>
       </c>
       <c r="J2" s="13"/>
-      <c r="K2" s="43" t="s">
+      <c r="K2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="46"/>
       <c r="P2" s="14"/>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="45"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="46"/>
       <c r="U2" s="15"/>
-      <c r="V2" s="40" t="s">
+      <c r="V2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="47"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="48"/>
       <c r="Z2" s="16"/>
-      <c r="AA2" s="40" t="s">
+      <c r="AA2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
       <c r="AG2" s="17"/>
-      <c r="AH2" s="40" t="s">
+      <c r="AH2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="41"/>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="41"/>
-      <c r="AS2" s="41"/>
-      <c r="AT2" s="41"/>
-      <c r="AU2" s="41"/>
-      <c r="AV2" s="41"/>
-      <c r="AW2" s="41"/>
-      <c r="AX2" s="41"/>
-      <c r="AY2" s="41"/>
-      <c r="AZ2" s="41"/>
-      <c r="BA2" s="41"/>
-      <c r="BB2" s="41"/>
-      <c r="BC2" s="41"/>
-      <c r="BD2" s="41"/>
-      <c r="BE2" s="41"/>
-      <c r="BF2" s="41"/>
-      <c r="BG2" s="41"/>
-      <c r="BH2" s="41"/>
-      <c r="BI2" s="41"/>
-      <c r="BJ2" s="41"/>
-      <c r="BK2" s="41"/>
-      <c r="BL2" s="41"/>
-      <c r="BM2" s="41"/>
-      <c r="BN2" s="41"/>
-      <c r="BO2" s="41"/>
-      <c r="BP2" s="41"/>
-      <c r="BQ2" s="41"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="38"/>
+      <c r="AQ2" s="38"/>
+      <c r="AR2" s="38"/>
+      <c r="AS2" s="38"/>
+      <c r="AT2" s="38"/>
+      <c r="AU2" s="38"/>
+      <c r="AV2" s="38"/>
+      <c r="AW2" s="38"/>
+      <c r="AX2" s="38"/>
+      <c r="AY2" s="38"/>
+      <c r="AZ2" s="38"/>
+      <c r="BA2" s="38"/>
+      <c r="BB2" s="38"/>
+      <c r="BC2" s="38"/>
+      <c r="BD2" s="38"/>
+      <c r="BE2" s="38"/>
+      <c r="BF2" s="38"/>
+      <c r="BG2" s="38"/>
+      <c r="BH2" s="38"/>
+      <c r="BI2" s="38"/>
+      <c r="BJ2" s="38"/>
+      <c r="BK2" s="38"/>
+      <c r="BL2" s="38"/>
+      <c r="BM2" s="38"/>
+      <c r="BN2" s="38"/>
+      <c r="BO2" s="38"/>
+      <c r="BP2" s="38"/>
+      <c r="BQ2" s="38"/>
     </row>
     <row r="3" spans="2:133" s="9" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="43" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="18" t="s">
@@ -1403,12 +1417,12 @@
       <c r="AA3" s="8"/>
     </row>
     <row r="4" spans="2:133" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="37"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
       <c r="H4" s="22">
         <v>45870</v>
       </c>
@@ -3457,10 +3471,14 @@
       <c r="D29" s="5">
         <v>31</v>
       </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="5"/>
+      <c r="E29" s="23">
+        <v>45931</v>
+      </c>
+      <c r="F29" s="5">
+        <v>31</v>
+      </c>
       <c r="G29" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB29"/>
       <c r="AC29"/>
@@ -3579,10 +3597,14 @@
       <c r="D30" s="5">
         <v>2</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="5"/>
+      <c r="E30" s="23">
+        <v>45931</v>
+      </c>
+      <c r="F30" s="5">
+        <v>2</v>
+      </c>
       <c r="G30" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB30"/>
       <c r="AC30"/>
@@ -3701,10 +3723,14 @@
       <c r="D31" s="5">
         <v>2</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
+      <c r="E31" s="23">
+        <v>45933</v>
+      </c>
+      <c r="F31" s="5">
+        <v>2</v>
+      </c>
       <c r="G31" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB31"/>
       <c r="AC31"/>
@@ -3823,10 +3849,14 @@
       <c r="D32" s="5">
         <v>2</v>
       </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="6">
-        <v>0</v>
+      <c r="E32" s="23">
+        <v>45936</v>
+      </c>
+      <c r="F32" s="5">
+        <v>2</v>
+      </c>
+      <c r="G32" s="36">
+        <v>1</v>
       </c>
       <c r="AB32"/>
       <c r="AC32"/>
@@ -3945,10 +3975,14 @@
       <c r="D33" s="5">
         <v>1</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
+      <c r="E33" s="23">
+        <v>45938</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1</v>
+      </c>
       <c r="G33" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB33"/>
       <c r="AC33"/>
@@ -4067,10 +4101,14 @@
       <c r="D34" s="5">
         <v>4</v>
       </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
+      <c r="E34" s="23">
+        <v>45939</v>
+      </c>
+      <c r="F34" s="5">
+        <v>4</v>
+      </c>
       <c r="G34" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB34"/>
       <c r="AC34"/>
@@ -4189,10 +4227,14 @@
       <c r="D35" s="5">
         <v>3</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
+      <c r="E35" s="23">
+        <v>45943</v>
+      </c>
+      <c r="F35" s="5">
+        <v>3</v>
+      </c>
       <c r="G35" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB35"/>
       <c r="AC35"/>
@@ -4311,10 +4353,14 @@
       <c r="D36" s="5">
         <v>2</v>
       </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
+      <c r="E36" s="23">
+        <v>45946</v>
+      </c>
+      <c r="F36" s="5">
+        <v>2</v>
+      </c>
       <c r="G36" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB36"/>
       <c r="AC36"/>
@@ -4433,10 +4479,14 @@
       <c r="D37" s="5">
         <v>2</v>
       </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
+      <c r="E37" s="23">
+        <v>45948</v>
+      </c>
+      <c r="F37" s="5">
+        <v>2</v>
+      </c>
       <c r="G37" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB37"/>
       <c r="AC37"/>
@@ -4555,10 +4605,14 @@
       <c r="D38" s="5">
         <v>3</v>
       </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
+      <c r="E38" s="23">
+        <v>45950</v>
+      </c>
+      <c r="F38" s="5">
+        <v>3</v>
+      </c>
       <c r="G38" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB38"/>
       <c r="AC38"/>
@@ -4677,10 +4731,14 @@
       <c r="D39" s="5">
         <v>2</v>
       </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
+      <c r="E39" s="23">
+        <v>45954</v>
+      </c>
+      <c r="F39" s="5">
+        <v>2</v>
+      </c>
       <c r="G39" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB39"/>
       <c r="AC39"/>
@@ -4799,10 +4857,14 @@
       <c r="D40" s="5">
         <v>1</v>
       </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
+      <c r="E40" s="23">
+        <v>45956</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1</v>
+      </c>
       <c r="G40" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB40"/>
       <c r="AC40"/>
@@ -4921,10 +4983,14 @@
       <c r="D41" s="5">
         <v>3</v>
       </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
+      <c r="E41" s="23">
+        <v>45957</v>
+      </c>
+      <c r="F41" s="5">
+        <v>3</v>
+      </c>
       <c r="G41" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB41"/>
       <c r="AC41"/>
@@ -5043,10 +5109,14 @@
       <c r="D42" s="5">
         <v>1</v>
       </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
+      <c r="E42" s="23">
+        <v>45960</v>
+      </c>
+      <c r="F42" s="5">
+        <v>1</v>
+      </c>
       <c r="G42" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB42"/>
       <c r="AC42"/>
@@ -5165,8 +5235,12 @@
       <c r="D43" s="5">
         <v>1</v>
       </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
+      <c r="E43" s="23">
+        <v>45960</v>
+      </c>
+      <c r="F43" s="5">
+        <v>1</v>
+      </c>
       <c r="G43" s="6">
         <v>0</v>
       </c>
